--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_10.xlsx
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4901378.24669789</v>
+        <v>4901378.246697891</v>
       </c>
     </row>
     <row r="11">
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -701,31 +701,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>34.86547882798917</v>
+      </c>
+      <c r="Y2" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="V2" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="W2" t="n">
-        <v>24.87477961344436</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>27.29193749722201</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -856,16 +856,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>39.58387696184059</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="G5" t="n">
         <v>39.58387696184059</v>
@@ -914,7 +914,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="I5" t="n">
-        <v>34.86547882798917</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>34.11888750173132</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G6" t="n">
         <v>39.58387696184059</v>
@@ -993,7 +993,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="I6" t="n">
-        <v>39.58387696184059</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>27.29193749722201</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I7" t="n">
         <v>39.58387696184059</v>
@@ -1078,7 +1078,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1145,16 +1145,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>12.92549025883184</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>39.58387696184059</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1221,52 +1221,52 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="G9" t="n">
+      <c r="S9" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H9" t="n">
+      <c r="T9" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="I9" t="n">
+      <c r="U9" t="n">
         <v>34.86547882798917</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>24.5704967621155</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1373,25 +1373,25 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>12.92549025883184</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="G11" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,19 +1412,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1458,52 +1458,52 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.7465913262578567</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H12" t="n">
+      <c r="S12" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="I12" t="n">
+      <c r="T12" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1543,16 +1543,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>24.5704967621155</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1570,16 +1570,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1622,13 +1622,13 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>12.92549025883184</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>39.58387696184059</v>
       </c>
       <c r="S14" t="n">
+        <v>24.87477961344436</v>
+      </c>
+      <c r="T14" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1734,16 +1734,16 @@
         <v>39.58387696184059</v>
       </c>
       <c r="S15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="U15" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="V15" t="n">
         <v>34.86547882798917</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1780,16 +1780,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>24.5704967621155</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,16 +1807,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1862,46 +1862,46 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>38.87161743162455</v>
-      </c>
       <c r="S17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1926,55 +1926,55 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>38.12502610536669</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.7465913262578567</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="F18" t="n">
+      <c r="S18" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="G18" t="n">
+      <c r="T18" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S19" t="n">
-        <v>0.7904504476822691</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T19" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="U19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2078,76 +2078,76 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>116.0367764965385</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2172,13 +2172,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>40.15245528394292</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2318,73 +2318,73 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>190.3453970742847</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>212.285385643442</v>
-      </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2400,25 +2400,25 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>87.57350850354015</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>81.43985127476442</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2555,13 +2555,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2609,19 +2609,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2646,16 +2646,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.1603019826155</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>35.40726547353833</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -2691,10 +2691,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2770,10 +2770,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2798,67 +2798,67 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>102.3382270926889</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2931,13 +2931,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>158.5778536060452</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>241.0142888776591</v>
@@ -3035,19 +3035,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3071,10 +3071,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -3114,13 +3114,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>78.91321639899687</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3165,16 +3165,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>36.43923176655766</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3308,13 +3308,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3345,13 +3345,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3360,13 +3360,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,10 +3393,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>151.6890773381162</v>
       </c>
       <c r="T36" t="n">
-        <v>69.71841270258091</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3405,10 +3405,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3478,10 +3478,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,31 +3500,31 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>200.3360962888297</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>103.7130553628818</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>99.22041616487689</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3755,10 +3755,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>208.2792470398066</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3803,10 +3803,10 @@
         <v>236.4659934602711</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="Y41" t="n">
-        <v>211.6586917214015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3822,10 +3822,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>116.0281692411908</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>236.4659934602711</v>
+        <v>53.62461233665586</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3983,13 +3983,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>39.58387696184059</v>
@@ -4028,13 +4028,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4071,13 +4071,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4110,19 +4110,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="X45" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="46">
@@ -4135,19 +4135,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
         <v>9.977552361264268</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.166710156947247</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G2" t="n">
         <v>3.166710156947247</v>
@@ -4331,49 +4331,49 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K2" t="n">
+        <v>3.166710156947247</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.166710156947247</v>
+      </c>
+      <c r="M2" t="n">
         <v>42.35474834916943</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>81.54278654139161</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>119.1474696551402</v>
-      </c>
-      <c r="N2" t="n">
-        <v>119.1474696551402</v>
-      </c>
-      <c r="O2" t="n">
-        <v>158.3355078473624</v>
       </c>
       <c r="P2" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R2" t="n">
-        <v>108.260178376266</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S2" t="n">
-        <v>108.260178376266</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T2" t="n">
-        <v>108.260178376266</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U2" t="n">
-        <v>68.2764642733967</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V2" t="n">
-        <v>28.29275017052741</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W2" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X2" t="n">
-        <v>3.166710156947247</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.166710156947247</v>
+        <v>83.13413836268582</v>
       </c>
     </row>
     <row r="3">
@@ -4410,10 +4410,10 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K3" t="n">
-        <v>40.77139327069581</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L3" t="n">
-        <v>40.77139327069581</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M3" t="n">
         <v>40.77139327069581</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.66114634470771</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="C4" t="n">
-        <v>25.66114634470771</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="D4" t="n">
-        <v>25.66114634470771</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="E4" t="n">
-        <v>25.66114634470771</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="F4" t="n">
-        <v>25.66114634470771</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="G4" t="n">
-        <v>25.66114634470771</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="H4" t="n">
-        <v>25.66114634470771</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="I4" t="n">
-        <v>25.66114634470771</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J4" t="n">
         <v>25.66114634470771</v>
@@ -4504,34 +4504,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P4" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q4" t="n">
-        <v>90.46354404567346</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R4" t="n">
-        <v>50.47982994280417</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S4" t="n">
-        <v>25.66114634470771</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T4" t="n">
-        <v>25.66114634470771</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="U4" t="n">
-        <v>25.66114634470771</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="V4" t="n">
-        <v>25.66114634470771</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="W4" t="n">
-        <v>25.66114634470771</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="X4" t="n">
-        <v>25.66114634470771</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Y4" t="n">
-        <v>25.66114634470771</v>
+        <v>133.1961881840039</v>
       </c>
     </row>
     <row r="5">
@@ -4553,13 +4553,13 @@
         <v>158.3355078473624</v>
       </c>
       <c r="F5" t="n">
-        <v>118.3517937444931</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="G5" t="n">
-        <v>78.36807964162378</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="H5" t="n">
-        <v>38.38436553875449</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I5" t="n">
         <v>3.166710156947247</v>
@@ -4574,7 +4574,7 @@
         <v>81.54278654139161</v>
       </c>
       <c r="M5" t="n">
-        <v>81.54278654139161</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N5" t="n">
         <v>119.1474696551402</v>
@@ -4632,13 +4632,13 @@
         <v>158.3355078473624</v>
       </c>
       <c r="F6" t="n">
-        <v>123.8719851183408</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="G6" t="n">
-        <v>83.88827101547153</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="H6" t="n">
-        <v>43.90455691260225</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="I6" t="n">
         <v>3.920842809732961</v>
@@ -4647,16 +4647,16 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K6" t="n">
-        <v>40.77139327069581</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L6" t="n">
-        <v>40.77139327069581</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M6" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N6" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="O6" t="n">
         <v>79.95943146291799</v>
@@ -4717,13 +4717,13 @@
         <v>133.1961881840039</v>
       </c>
       <c r="H7" t="n">
-        <v>105.6285745504463</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="I7" t="n">
-        <v>65.64486044757699</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="J7" t="n">
-        <v>25.66114634470771</v>
+        <v>13.245045875396</v>
       </c>
       <c r="K7" t="n">
         <v>3.166710156947247</v>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>108.260178376266</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C8" t="n">
-        <v>108.260178376266</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D8" t="n">
-        <v>108.260178376266</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E8" t="n">
-        <v>108.260178376266</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F8" t="n">
-        <v>108.260178376266</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G8" t="n">
-        <v>95.20412760976917</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H8" t="n">
-        <v>55.22041350689989</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I8" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J8" t="n">
         <v>3.166710156947247</v>
@@ -4811,7 +4811,7 @@
         <v>81.54278654139161</v>
       </c>
       <c r="M8" t="n">
-        <v>81.54278654139161</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N8" t="n">
         <v>119.1474696551402</v>
@@ -4829,25 +4829,25 @@
         <v>108.260178376266</v>
       </c>
       <c r="S8" t="n">
-        <v>108.260178376266</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="T8" t="n">
-        <v>108.260178376266</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="U8" t="n">
-        <v>108.260178376266</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V8" t="n">
-        <v>108.260178376266</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W8" t="n">
-        <v>108.260178376266</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X8" t="n">
-        <v>108.260178376266</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y8" t="n">
-        <v>108.260178376266</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F9" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G9" t="n">
-        <v>78.36807964162378</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H9" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I9" t="n">
         <v>3.166710156947247</v>
@@ -4887,46 +4887,46 @@
         <v>3.166710156947247</v>
       </c>
       <c r="L9" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M9" t="n">
-        <v>3.166710156947247</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N9" t="n">
-        <v>40.77139327069581</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O9" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P9" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q9" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="R9" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S9" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="U9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y9" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="C10" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="D10" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="E10" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="F10" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="G10" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="H10" t="n">
-        <v>3.166710156947247</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="I10" t="n">
-        <v>3.166710156947247</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J10" t="n">
-        <v>3.166710156947247</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K10" t="n">
         <v>3.166710156947247</v>
@@ -4981,31 +4981,31 @@
         <v>130.4472581485427</v>
       </c>
       <c r="Q10" t="n">
-        <v>90.46354404567346</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="R10" t="n">
-        <v>50.47982994280417</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="S10" t="n">
-        <v>10.49611583993489</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="T10" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="U10" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="V10" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="W10" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="X10" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68.2764642733967</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="C11" t="n">
-        <v>68.2764642733967</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="D11" t="n">
-        <v>55.22041350689989</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="E11" t="n">
-        <v>55.22041350689989</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="F11" t="n">
-        <v>55.22041350689989</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="G11" t="n">
-        <v>15.2366994040306</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H11" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I11" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J11" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K11" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L11" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M11" t="n">
+        <v>42.35474834916943</v>
+      </c>
+      <c r="N11" t="n">
         <v>79.95943146291799</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>119.1474696551402</v>
-      </c>
-      <c r="O11" t="n">
-        <v>158.3355078473624</v>
       </c>
       <c r="P11" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R11" t="n">
-        <v>108.260178376266</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S11" t="n">
-        <v>108.260178376266</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T11" t="n">
-        <v>68.2764642733967</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U11" t="n">
-        <v>68.2764642733967</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="V11" t="n">
-        <v>68.2764642733967</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="W11" t="n">
-        <v>68.2764642733967</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="X11" t="n">
-        <v>68.2764642733967</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="Y11" t="n">
-        <v>68.2764642733967</v>
+        <v>118.3517937444931</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5094,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="C12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="D12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="E12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="F12" t="n">
-        <v>123.1178524655551</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="G12" t="n">
-        <v>83.13413836268582</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="H12" t="n">
-        <v>43.15042425981653</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="I12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J12" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K12" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L12" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M12" t="n">
-        <v>79.95943146291799</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N12" t="n">
         <v>79.95943146291799</v>
@@ -5136,34 +5136,34 @@
         <v>119.1474696551402</v>
       </c>
       <c r="P12" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q12" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S12" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T12" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="U12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="V12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="W12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="X12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="Y12" t="n">
-        <v>158.3355078473624</v>
+        <v>3.920842809732961</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="C13" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="D13" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="E13" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="F13" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="G13" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="H13" t="n">
-        <v>3.166710156947247</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="I13" t="n">
-        <v>3.166710156947247</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J13" t="n">
-        <v>3.166710156947247</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K13" t="n">
         <v>3.166710156947247</v>
@@ -5218,31 +5218,31 @@
         <v>130.4472581485427</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.46354404567346</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="R13" t="n">
-        <v>50.47982994280417</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="S13" t="n">
-        <v>10.49611583993489</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="T13" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="U13" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="V13" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="W13" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="X13" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>68.2764642733967</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C14" t="n">
-        <v>68.2764642733967</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D14" t="n">
-        <v>68.2764642733967</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E14" t="n">
-        <v>68.2764642733967</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F14" t="n">
-        <v>68.2764642733967</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G14" t="n">
-        <v>68.2764642733967</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H14" t="n">
-        <v>55.22041350689989</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I14" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J14" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K14" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L14" t="n">
-        <v>42.35474834916943</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M14" t="n">
-        <v>81.54278654139161</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N14" t="n">
         <v>119.1474696551402</v>
@@ -5303,25 +5303,25 @@
         <v>108.260178376266</v>
       </c>
       <c r="S14" t="n">
-        <v>68.2764642733967</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="T14" t="n">
-        <v>68.2764642733967</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="U14" t="n">
-        <v>68.2764642733967</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V14" t="n">
-        <v>68.2764642733967</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W14" t="n">
-        <v>68.2764642733967</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X14" t="n">
-        <v>68.2764642733967</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y14" t="n">
-        <v>68.2764642733967</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="15">
@@ -5361,16 +5361,16 @@
         <v>3.166710156947247</v>
       </c>
       <c r="L15" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M15" t="n">
-        <v>42.35474834916943</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N15" t="n">
-        <v>81.54278654139161</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O15" t="n">
-        <v>120.7308247336138</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P15" t="n">
         <v>158.3355078473624</v>
@@ -5382,13 +5382,13 @@
         <v>118.3517937444931</v>
       </c>
       <c r="S15" t="n">
+        <v>118.3517937444931</v>
+      </c>
+      <c r="T15" t="n">
         <v>78.36807964162378</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>38.38436553875449</v>
-      </c>
-      <c r="U15" t="n">
-        <v>3.166710156947247</v>
       </c>
       <c r="V15" t="n">
         <v>3.166710156947247</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="C16" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="D16" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="E16" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="F16" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="G16" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="H16" t="n">
-        <v>3.166710156947247</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="I16" t="n">
-        <v>3.166710156947247</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J16" t="n">
-        <v>3.166710156947247</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K16" t="n">
         <v>3.166710156947247</v>
@@ -5455,31 +5455,31 @@
         <v>130.4472581485427</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.46354404567346</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="R16" t="n">
-        <v>50.47982994280417</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="S16" t="n">
-        <v>10.49611583993489</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="T16" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="U16" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="V16" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="W16" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="X16" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.166710156947247</v>
+        <v>130.4472581485427</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C17" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D17" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E17" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F17" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G17" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H17" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I17" t="n">
         <v>3.530573790338288</v>
@@ -5516,19 +5516,19 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K17" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L17" t="n">
-        <v>45.45613755060546</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M17" t="n">
         <v>89.14698820604177</v>
       </c>
       <c r="N17" t="n">
+        <v>89.14698820604177</v>
+      </c>
+      <c r="O17" t="n">
         <v>132.8378388614781</v>
-      </c>
-      <c r="O17" t="n">
-        <v>176.5286895169144</v>
       </c>
       <c r="P17" t="n">
         <v>176.5286895169144</v>
@@ -5537,28 +5537,28 @@
         <v>176.5286895169144</v>
       </c>
       <c r="R17" t="n">
-        <v>137.2644294849704</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S17" t="n">
-        <v>92.68647758675968</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T17" t="n">
-        <v>48.10852568854899</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U17" t="n">
-        <v>48.10852568854899</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V17" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W17" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X17" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y17" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.5286895169144</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C18" t="n">
-        <v>176.5286895169144</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D18" t="n">
-        <v>137.2644294849704</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E18" t="n">
-        <v>92.68647758675968</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F18" t="n">
-        <v>48.10852568854899</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G18" t="n">
-        <v>3.530573790338288</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H18" t="n">
-        <v>3.530573790338288</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J18" t="n">
         <v>3.530573790338288</v>
@@ -5601,43 +5601,43 @@
         <v>90.91227510121089</v>
       </c>
       <c r="M18" t="n">
-        <v>132.8378388614781</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N18" t="n">
-        <v>132.8378388614781</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O18" t="n">
-        <v>132.8378388614781</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P18" t="n">
-        <v>132.8378388614781</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="Q18" t="n">
         <v>176.5286895169144</v>
       </c>
       <c r="R18" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S18" t="n">
-        <v>176.5286895169144</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T18" t="n">
-        <v>176.5286895169144</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U18" t="n">
-        <v>176.5286895169144</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V18" t="n">
-        <v>176.5286895169144</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W18" t="n">
-        <v>176.5286895169144</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X18" t="n">
-        <v>176.5286895169144</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y18" t="n">
-        <v>176.5286895169144</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.530573790338288</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C19" t="n">
-        <v>3.530573790338288</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="D19" t="n">
-        <v>3.530573790338288</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="G19" t="n">
         <v>3.530573790338288</v>
@@ -5695,28 +5695,28 @@
         <v>138.062864280609</v>
       </c>
       <c r="R19" t="n">
-        <v>138.062864280609</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S19" t="n">
-        <v>137.2644294849704</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="T19" t="n">
-        <v>92.68647758675968</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="U19" t="n">
-        <v>48.10852568854899</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="V19" t="n">
-        <v>3.530573790338288</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="W19" t="n">
-        <v>3.530573790338288</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X19" t="n">
-        <v>3.530573790338288</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.530573790338288</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>264.262076138609</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>264.262076138609</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>264.262076138609</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>264.262076138609</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>264.262076138609</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5832,13 +5832,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
         <v>725.4530095217538</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>660.701031422288</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>432.4774131586771</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V21" t="n">
-        <v>432.4774131586771</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W21" t="n">
-        <v>432.4774131586771</v>
+        <v>345.004439675971</v>
       </c>
       <c r="X21" t="n">
-        <v>432.4774131586771</v>
+        <v>345.004439675971</v>
       </c>
       <c r="Y21" t="n">
-        <v>432.4774131586771</v>
+        <v>137.2441409110171</v>
       </c>
     </row>
     <row r="22">
@@ -5932,7 +5932,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>317.2494235330527</v>
+        <v>347.7274039646085</v>
       </c>
       <c r="C24" t="n">
-        <v>317.2494235330527</v>
+        <v>347.7274039646085</v>
       </c>
       <c r="D24" t="n">
-        <v>317.2494235330527</v>
+        <v>198.7929943033573</v>
       </c>
       <c r="E24" t="n">
-        <v>158.0119685275972</v>
+        <v>198.7929943033573</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>198.7929943033573</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6072,10 +6072,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
         <v>712.019119383956</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>780.6251500284063</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>780.6251500284063</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>552.4015317647954</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>317.2494235330527</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W24" t="n">
-        <v>317.2494235330527</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X24" t="n">
-        <v>317.2494235330527</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="Y24" t="n">
-        <v>317.2494235330527</v>
+        <v>347.7274039646085</v>
       </c>
     </row>
     <row r="25">
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
         <v>19.28114311021272</v>
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E26" t="n">
         <v>19.28114311021272</v>
@@ -6257,19 +6257,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>928.2922408909005</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>726.1056462496665</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U27" t="n">
-        <v>497.8820279860555</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V27" t="n">
-        <v>262.7299197543128</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W27" t="n">
-        <v>19.28114311021272</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6543,19 +6543,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6579,13 +6579,13 @@
         <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>257.2326523711826</v>
+        <v>340.5017789081662</v>
       </c>
       <c r="X30" t="n">
-        <v>49.38115216564972</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
     </row>
     <row r="31">
@@ -6646,22 +6646,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C32" t="n">
-        <v>559.1338160830064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D32" t="n">
-        <v>559.1338160830064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E32" t="n">
-        <v>559.1338160830064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F32" t="n">
-        <v>315.6850394389064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G32" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>728.9050472788936</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="C33" t="n">
-        <v>554.4520179977666</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D33" t="n">
-        <v>405.5176083365153</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>246.2801533310598</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>99.74559535794478</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
         <v>20.03527576299844</v>
@@ -6783,13 +6783,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
+        <v>19.28114311021272</v>
+      </c>
+      <c r="M33" t="n">
         <v>234.810827406191</v>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>473.4149733950735</v>
-      </c>
-      <c r="N33" t="n">
-        <v>712.019119383956</v>
       </c>
       <c r="O33" t="n">
         <v>712.019119383956</v>
@@ -6813,16 +6813,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>728.9050472788936</v>
+        <v>927.2498506959315</v>
       </c>
       <c r="X33" t="n">
-        <v>728.9050472788936</v>
+        <v>719.3983504903987</v>
       </c>
       <c r="Y33" t="n">
-        <v>728.9050472788936</v>
+        <v>511.6380517254448</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
         <v>829.5248650203655</v>
@@ -6886,22 +6886,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>133.4044113554191</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C36" t="n">
-        <v>133.4044113554191</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D36" t="n">
-        <v>133.4044113554191</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E36" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,19 +7020,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7041,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>709.6663358230005</v>
       </c>
       <c r="T36" t="n">
-        <v>792.4649869700058</v>
+        <v>709.6663358230005</v>
       </c>
       <c r="U36" t="n">
-        <v>792.4649869700058</v>
+        <v>709.6663358230005</v>
       </c>
       <c r="V36" t="n">
-        <v>792.4649869700058</v>
+        <v>709.6663358230005</v>
       </c>
       <c r="W36" t="n">
-        <v>549.0162103259058</v>
+        <v>709.6663358230005</v>
       </c>
       <c r="X36" t="n">
-        <v>341.164710120373</v>
+        <v>709.6663358230005</v>
       </c>
       <c r="Y36" t="n">
-        <v>133.4044113554191</v>
+        <v>501.9060370580465</v>
       </c>
     </row>
     <row r="37">
@@ -7126,7 +7126,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7196,28 +7196,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>569.2254314512334</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>569.2254314512334</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>569.2254314512334</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>124.0418050929216</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>124.0418050929216</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>124.0418050929216</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7257,19 +7257,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>496.4894350879777</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O39" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7278,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>690.4171683705204</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>462.1935501069094</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>227.0414418751666</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W39" t="n">
-        <v>227.0414418751666</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X39" t="n">
-        <v>227.0414418751666</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>298.4948343740486</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>257.7718183255803</v>
+        <v>229.3003572948082</v>
       </c>
       <c r="C41" t="n">
-        <v>257.7718183255803</v>
+        <v>229.3003572948082</v>
       </c>
       <c r="D41" t="n">
-        <v>257.7718183255803</v>
+        <v>229.3003572948082</v>
       </c>
       <c r="E41" t="n">
-        <v>257.7718183255803</v>
+        <v>229.3003572948082</v>
       </c>
       <c r="F41" t="n">
-        <v>257.7718183255803</v>
+        <v>229.3003572948082</v>
       </c>
       <c r="G41" t="n">
-        <v>257.7718183255803</v>
+        <v>229.3003572948082</v>
       </c>
       <c r="H41" t="n">
-        <v>18.91727947682168</v>
+        <v>229.3003572948082</v>
       </c>
       <c r="I41" t="n">
         <v>18.91727947682168</v>
@@ -7418,7 +7418,7 @@
         <v>302.0081369724026</v>
       </c>
       <c r="M41" t="n">
-        <v>501.1544461991459</v>
+        <v>518.9837642353068</v>
       </c>
       <c r="N41" t="n">
         <v>707.0089684063852</v>
@@ -7430,31 +7430,31 @@
         <v>945.8639738410842</v>
       </c>
       <c r="Q41" t="n">
-        <v>935.7723584728571</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R41" t="n">
-        <v>935.7723584728571</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="S41" t="n">
-        <v>935.7723584728571</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="T41" t="n">
-        <v>710.423015478785</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="U41" t="n">
-        <v>710.423015478785</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="V41" t="n">
-        <v>710.423015478785</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="W41" t="n">
-        <v>471.5684766300263</v>
+        <v>707.0094349923255</v>
       </c>
       <c r="X41" t="n">
-        <v>471.5684766300263</v>
+        <v>468.1548961435668</v>
       </c>
       <c r="Y41" t="n">
-        <v>257.7718183255803</v>
+        <v>468.1548961435668</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>310.5704797086465</v>
+        <v>342.3047184192</v>
       </c>
       <c r="C42" t="n">
-        <v>136.1174504275195</v>
+        <v>167.8516891380729</v>
       </c>
       <c r="D42" t="n">
-        <v>136.1174504275195</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="E42" t="n">
         <v>18.91727947682168</v>
@@ -7494,13 +7494,13 @@
         <v>144.2748395346591</v>
       </c>
       <c r="L42" t="n">
-        <v>374.2379454030082</v>
+        <v>144.2748395346591</v>
       </c>
       <c r="M42" t="n">
-        <v>374.2379454030082</v>
+        <v>378.3761730603275</v>
       </c>
       <c r="N42" t="n">
-        <v>459.7246041887357</v>
+        <v>612.4775065859958</v>
       </c>
       <c r="O42" t="n">
         <v>693.8259377144041</v>
@@ -7515,25 +7515,25 @@
         <v>945.8639738410842</v>
       </c>
       <c r="S42" t="n">
-        <v>945.8639738410842</v>
+        <v>772.4466292917531</v>
       </c>
       <c r="T42" t="n">
-        <v>945.8639738410842</v>
+        <v>772.4466292917531</v>
       </c>
       <c r="U42" t="n">
-        <v>717.6403555774732</v>
+        <v>772.4466292917531</v>
       </c>
       <c r="V42" t="n">
-        <v>717.6403555774732</v>
+        <v>772.4466292917531</v>
       </c>
       <c r="W42" t="n">
-        <v>478.7858167287145</v>
+        <v>718.2803542042219</v>
       </c>
       <c r="X42" t="n">
-        <v>478.7858167287145</v>
+        <v>718.2803542042219</v>
       </c>
       <c r="Y42" t="n">
-        <v>478.7858167287145</v>
+        <v>510.520055439268</v>
       </c>
     </row>
     <row r="43">
@@ -7594,10 +7594,10 @@
         <v>153.4495699670924</v>
       </c>
       <c r="S43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="T43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="U43" t="n">
         <v>18.91727947682168</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>78.36807964162378</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C44" t="n">
-        <v>78.36807964162378</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D44" t="n">
-        <v>78.36807964162378</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E44" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F44" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G44" t="n">
         <v>3.166710156947247</v>
@@ -7661,37 +7661,37 @@
         <v>119.1474696551402</v>
       </c>
       <c r="O44" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P44" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q44" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R44" t="n">
-        <v>118.3517937444931</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S44" t="n">
-        <v>118.3517937444931</v>
+        <v>108.260178376266</v>
       </c>
       <c r="T44" t="n">
-        <v>118.3517937444931</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="U44" t="n">
-        <v>118.3517937444931</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="V44" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W44" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X44" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y44" t="n">
-        <v>78.36807964162378</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.166710156947247</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="C45" t="n">
-        <v>3.166710156947247</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="D45" t="n">
-        <v>3.166710156947247</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="E45" t="n">
-        <v>3.166710156947247</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="F45" t="n">
-        <v>3.166710156947247</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="G45" t="n">
-        <v>3.166710156947247</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="H45" t="n">
-        <v>3.166710156947247</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="I45" t="n">
-        <v>3.166710156947247</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J45" t="n">
         <v>3.166710156947247</v>
@@ -7731,19 +7731,19 @@
         <v>3.166710156947247</v>
       </c>
       <c r="L45" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M45" t="n">
-        <v>81.54278654139161</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="N45" t="n">
-        <v>120.7308247336138</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="O45" t="n">
-        <v>158.3355078473624</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P45" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q45" t="n">
         <v>158.3355078473624</v>
@@ -7758,19 +7758,19 @@
         <v>158.3355078473624</v>
       </c>
       <c r="U45" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="V45" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="W45" t="n">
         <v>118.3517937444931</v>
       </c>
-      <c r="V45" t="n">
+      <c r="X45" t="n">
+        <v>118.3517937444931</v>
+      </c>
+      <c r="Y45" t="n">
         <v>78.36807964162378</v>
-      </c>
-      <c r="W45" t="n">
-        <v>38.38436553875449</v>
-      </c>
-      <c r="X45" t="n">
-        <v>3.166710156947247</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>53.22875997826529</v>
+      </c>
+      <c r="C46" t="n">
+        <v>53.22875997826529</v>
+      </c>
+      <c r="D46" t="n">
         <v>13.245045875396</v>
       </c>
-      <c r="C46" t="n">
-        <v>3.166710156947247</v>
-      </c>
-      <c r="D46" t="n">
-        <v>3.166710156947247</v>
-      </c>
       <c r="E46" t="n">
-        <v>3.166710156947247</v>
+        <v>13.245045875396</v>
       </c>
       <c r="F46" t="n">
-        <v>3.166710156947247</v>
+        <v>13.245045875396</v>
       </c>
       <c r="G46" t="n">
         <v>3.166710156947247</v>
@@ -7849,7 +7849,7 @@
         <v>53.22875997826529</v>
       </c>
       <c r="Y46" t="n">
-        <v>13.245045875396</v>
+        <v>53.22875997826529</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>268.3307616249986</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>268.9969405584315</v>
       </c>
       <c r="O2" t="n">
-        <v>269.6820883835273</v>
+        <v>268.0827398194126</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>175.8259673720848</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
@@ -8222,10 +8222,10 @@
         <v>275.3502919318278</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N5" t="n">
-        <v>267.3975919943167</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
         <v>230.0982114216867</v>
@@ -8295,19 +8295,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>175.8259673720848</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>182.180121406285</v>
+        <v>180.5807728421703</v>
       </c>
       <c r="P6" t="n">
         <v>173.5582843761708</v>
@@ -8459,10 +8459,10 @@
         <v>275.3502919318278</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N8" t="n">
-        <v>267.3975919943167</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
         <v>230.0982114216867</v>
@@ -8535,13 +8535,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N9" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>182.180121406285</v>
@@ -8550,7 +8550,7 @@
         <v>173.5582843761708</v>
       </c>
       <c r="Q9" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L11" t="n">
-        <v>273.750943367713</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>268.9969405584315</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O11" t="n">
         <v>269.6820883835273</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L12" t="n">
-        <v>176.5389081776</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O12" t="n">
         <v>182.180121406285</v>
       </c>
       <c r="P12" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,16 +8927,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L14" t="n">
         <v>275.3502919318278</v>
       </c>
       <c r="M14" t="n">
-        <v>269.9301101891133</v>
+        <v>268.3307616249986</v>
       </c>
       <c r="N14" t="n">
-        <v>267.3975919943167</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
         <v>269.6820883835273</v>
@@ -9009,19 +9009,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M15" t="n">
-        <v>181.7179108838589</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N15" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>182.180121406285</v>
       </c>
       <c r="P15" t="n">
-        <v>171.9589358120561</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L17" t="n">
         <v>278.1154692732874</v>
       </c>
       <c r="M17" t="n">
-        <v>274.4784056065013</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
-        <v>273.5452359758195</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
         <v>274.2303838009153</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9249,10 +9249,10 @@
         <v>182.6865521591028</v>
       </c>
       <c r="M18" t="n">
-        <v>184.4830882253185</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
@@ -9261,7 +9261,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>184.1139464652501</v>
+        <v>182.3308283893217</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,10 +9401,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,7 +9489,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>244.7225752110828</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9720,13 +9720,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
@@ -9954,19 +9954,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>231.1529892133073</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,22 +10191,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10431,16 +10431,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>356.2611315939937</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10668,13 +10668,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,7 +10905,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
@@ -10914,13 +10914,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,10 +11066,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>431.5041213350942</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>419.3375122542458</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11142,16 +11142,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>378.6000273822893</v>
       </c>
       <c r="N42" t="n">
-        <v>217.6918724729571</v>
+        <v>367.8077055436044</v>
       </c>
       <c r="O42" t="n">
-        <v>379.0622379047155</v>
+        <v>224.7663768973821</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11309,10 +11309,10 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P44" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,22 +11379,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>170.9255890451739</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O45" t="n">
-        <v>180.5807728421703</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22556,10 +22556,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>367.2921687798708</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22589,10 +22589,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22601,19 +22601,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>288.1683815082943</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>324.3661891039686</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>334.8656218504798</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="3">
@@ -22720,13 +22720,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>134.9352350102176</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22744,16 +22744,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>199.4461012748567</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22793,7 +22793,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>367.2921687798708</v>
+        <v>372.0105669137222</v>
       </c>
       <c r="G5" t="n">
         <v>375.7188605532945</v>
@@ -22802,7 +22802,7 @@
         <v>299.8909251539266</v>
       </c>
       <c r="I5" t="n">
-        <v>175.6104107424167</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22872,7 +22872,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>110.9503248916526</v>
+        <v>105.4853354315433</v>
       </c>
       <c r="G6" t="n">
         <v>97.75964020137005</v>
@@ -22881,7 +22881,7 @@
         <v>72.65156727465587</v>
       </c>
       <c r="I6" t="n">
-        <v>49.81275588957449</v>
+        <v>55.27774534968376</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22957,7 +22957,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>134.9352350102176</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I7" t="n">
         <v>115.8665979654177</v>
@@ -22966,7 +22966,7 @@
         <v>53.77530315483219</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>12.29193946461858</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23033,16 +23033,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>402.3772472563032</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23069,13 +23069,13 @@
         <v>110.2852409793091</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>226.4708732943921</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23109,16 +23109,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>54.53115402342591</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23145,16 +23145,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>191.0759032529857</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23194,16 +23194,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>137.6566757453241</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23221,16 +23221,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23261,25 +23261,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>341.7575513618511</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>372.0105669137222</v>
       </c>
       <c r="G11" t="n">
         <v>375.7188605532945</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,19 +23300,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23346,19 +23346,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>110.2037335653947</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,16 +23382,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>191.8224945792435</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23431,16 +23431,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>162.2271725074396</v>
+        <v>137.6566757453241</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,16 +23458,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23510,13 +23510,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>326.5493118569353</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>110.2852409793091</v>
       </c>
       <c r="S14" t="n">
-        <v>169.4361926244048</v>
+        <v>184.145289972801</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23622,16 +23622,16 @@
         <v>60.57395719080255</v>
       </c>
       <c r="S15" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>160.580851732981</v>
       </c>
       <c r="U15" t="n">
-        <v>191.0759032529857</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>197.9351083214361</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23668,16 +23668,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>137.6566757453241</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,16 +23695,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23750,7 +23750,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23777,19 +23777,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>110.9975005095251</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>178.9636771849028</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>288.8806410385104</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23814,25 +23814,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>108.5734481330142</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>51.27160674604839</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,13 +23856,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.9909793584588</v>
+        <v>167.2005289107765</v>
       </c>
       <c r="H19" t="n">
         <v>162.2271725074396</v>
@@ -23935,19 +23935,19 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S19" t="n">
-        <v>223.22614758929</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T19" t="n">
         <v>183.8134170490529</v>
       </c>
       <c r="U19" t="n">
-        <v>242.1868569772623</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>208.0054709445994</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24023,19 +24023,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>157.4457150350269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>50.49640715332887</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24060,13 +24060,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>97.19106187926772</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24172,10 +24172,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24206,13 +24206,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -24224,10 +24224,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>20.13049249612121</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24266,13 +24266,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>157.445715035027</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24288,25 +24288,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>49.77000865967048</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,16 +24330,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>90.2433198290734</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24351,7 +24351,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24443,13 +24443,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24497,19 +24497,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24534,16 +24534,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>2.183215180595113</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,7 +24570,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>136.2759056302995</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24579,10 +24579,10 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24658,10 +24658,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24686,13 +24686,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24722,31 +24722,31 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24774,7 +24774,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24819,13 +24819,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>93.11712955487437</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24886,7 +24886,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>124.2586028933485</v>
@@ -24923,19 +24923,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>158.0503210826583</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,10 +24959,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24993,7 +24993,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25002,13 +25002,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>58.43030076421377</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25053,16 +25053,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>215.2557513943619</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25126,7 +25126,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25151,25 +25151,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25196,13 +25196,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25233,13 +25233,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25248,13 +25248,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,10 +25281,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>19.99409376572166</v>
       </c>
       <c r="T36" t="n">
-        <v>130.4463159922407</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25293,10 +25293,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25366,10 +25366,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25400,19 +25400,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>206.5399494528818</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25436,7 +25436,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25445,19 +25445,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>307.3148329761767</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25470,7 +25470,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25479,7 +25479,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>41.35615703050212</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25518,10 +25518,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>100.9443125299447</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25536,7 +25536,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>146.2678482032095</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25643,10 +25643,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>103.0088086554961</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>2.19664253059932</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25679,7 +25679,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25691,10 +25691,10 @@
         <v>112.774975257142</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>133.265107218198</v>
       </c>
       <c r="Y41" t="n">
-        <v>174.579246934652</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25710,10 +25710,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>41.61691121421015</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25755,25 +25755,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>15.22898970064855</v>
+        <v>198.0703708242638</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25834,13 +25834,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25871,13 +25871,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>380.4372586871459</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>110.2852409793091</v>
@@ -25916,13 +25916,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>302.8774788566905</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25944,7 +25944,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>138.5896114865844</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25959,13 +25959,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25998,19 +25998,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>212.111106199079</v>
       </c>
       <c r="X45" t="n">
-        <v>170.9075063754883</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>166.0988188154638</v>
       </c>
     </row>
     <row r="46">
@@ -26023,10 +26023,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>157.2692687373636</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>109.0315960563718</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>158.0134269971945</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>179.0007763902542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355268.3982687964</v>
+        <v>355268.3982687963</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355268.3982687964</v>
+        <v>355268.3982687963</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358659.0160535966</v>
+        <v>358659.0160535968</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498482.0175939973</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495251.8800453862</v>
+        <v>495251.8800453863</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355268.3982687964</v>
+        <v>355268.3982687963</v>
       </c>
     </row>
   </sheetData>
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>59211.39971146598</v>
+      </c>
+      <c r="C2" t="n">
+        <v>59211.39971146599</v>
+      </c>
+      <c r="D2" t="n">
+        <v>59211.39971146603</v>
+      </c>
+      <c r="E2" t="n">
         <v>59211.39971146602</v>
       </c>
-      <c r="C2" t="n">
-        <v>59211.39971146602</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>59211.39971146601</v>
       </c>
-      <c r="E2" t="n">
-        <v>59211.39971146599</v>
-      </c>
-      <c r="F2" t="n">
-        <v>59211.39971146599</v>
-      </c>
       <c r="G2" t="n">
-        <v>59776.5026755994</v>
+        <v>59776.50267559938</v>
       </c>
       <c r="H2" t="n">
-        <v>83080.33626566618</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="I2" t="n">
-        <v>83080.33626566618</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="J2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="K2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="L2" t="n">
-        <v>83080.33626566618</v>
+        <v>83080.33626566619</v>
       </c>
       <c r="M2" t="n">
         <v>83080.33626566621</v>
       </c>
       <c r="N2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566622</v>
       </c>
       <c r="O2" t="n">
         <v>82541.98000756433</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.4675990829</v>
+        <v>13265.46759908291</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.41106180436364</v>
+        <v>33.41106180436363</v>
       </c>
       <c r="C4" t="n">
         <v>33.41106180436364</v>
@@ -26427,19 +26427,19 @@
         <v>33.41106180436364</v>
       </c>
       <c r="F4" t="n">
-        <v>33.41106180436364</v>
+        <v>33.41106180436363</v>
       </c>
       <c r="G4" t="n">
-        <v>36.87052286425572</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="H4" t="n">
         <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="J4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="K4" t="n">
         <v>179.5324977039669</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9878.221331298846</v>
+        <v>9878.221331298795</v>
       </c>
       <c r="C6" t="n">
-        <v>23143.68893038174</v>
+        <v>23143.68893038172</v>
       </c>
       <c r="D6" t="n">
-        <v>23143.68893038174</v>
+        <v>23143.68893038176</v>
       </c>
       <c r="E6" t="n">
-        <v>56771.28893038172</v>
+        <v>56771.28893038174</v>
       </c>
       <c r="F6" t="n">
-        <v>56771.28893038172</v>
+        <v>56771.28893038174</v>
       </c>
       <c r="G6" t="n">
-        <v>55809.77652260325</v>
+        <v>55809.77652260324</v>
       </c>
       <c r="H6" t="n">
-        <v>15126.56803387551</v>
+        <v>15126.56803387554</v>
       </c>
       <c r="I6" t="n">
-        <v>68247.13500420054</v>
+        <v>68247.13500420057</v>
       </c>
       <c r="J6" t="n">
         <v>57890.25110039672</v>
       </c>
       <c r="K6" t="n">
-        <v>68247.13500420057</v>
+        <v>68247.13500420054</v>
       </c>
       <c r="L6" t="n">
-        <v>68247.13500420054</v>
+        <v>68247.13500420055</v>
       </c>
       <c r="M6" t="n">
         <v>68247.13500420057</v>
       </c>
       <c r="N6" t="n">
-        <v>68247.13500420057</v>
+        <v>68247.13500420058</v>
       </c>
       <c r="O6" t="n">
         <v>67988.61082990075</v>
       </c>
       <c r="P6" t="n">
-        <v>56771.28893038174</v>
+        <v>56771.28893038175</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>37.98452839772582</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34942,10 +34942,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N5" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>39.58387696184059</v>
       </c>
       <c r="P6" t="n">
         <v>39.58387696184059</v>
@@ -35179,10 +35179,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N8" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N9" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>39.58387696184059</v>
@@ -35270,7 +35270,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="M11" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="N11" t="n">
-        <v>39.58387696184059</v>
       </c>
       <c r="O11" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="M12" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,16 +35647,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L14" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="M14" t="n">
-        <v>39.58387696184059</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N14" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>39.58387696184059</v>
@@ -35729,19 +35729,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M15" t="n">
-        <v>39.58387696184059</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="P15" t="n">
-        <v>37.98452839772582</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L17" t="n">
         <v>42.34905430330018</v>
       </c>
       <c r="M17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35969,10 +35969,10 @@
         <v>44.13217237922859</v>
       </c>
       <c r="M18" t="n">
-        <v>42.34905430330019</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.13217237922859</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36209,7 +36209,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>113.3808631277494</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36440,13 +36440,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36674,19 +36674,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>99.81127712997396</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36844,7 +36844,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P29" t="n">
         <v>90.5657124162131</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N30" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37151,16 +37151,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
         <v>217.7067518141195</v>
-      </c>
-      <c r="M33" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37315,7 +37315,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37388,13 +37388,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37403,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,13 +37549,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
@@ -37634,13 +37634,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,10 +37786,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>201.1578881078215</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153932</v>
+        <v>189.9244486576549</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37862,16 +37862,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="N42" t="n">
-        <v>86.35016038962375</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="O42" t="n">
-        <v>236.4659934602711</v>
+        <v>82.17013245293764</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38029,10 +38029,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,22 +38099,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="O45" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="M45" t="n">
+      <c r="P45" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="N45" t="n">
+      <c r="Q45" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="O45" t="n">
-        <v>37.98452839772582</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376800.6061809955</v>
+        <v>373609.6494672063</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221765</v>
+        <v>2114249.189782367</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179436</v>
+        <v>19492207.609564</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4901378.246697891</v>
+        <v>5116643.000488906</v>
       </c>
     </row>
     <row r="11">
@@ -668,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -701,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>34.11888750173132</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="G3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -832,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>27.29193749722201</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -984,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>39.58387696184059</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="G6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I6" t="n">
-        <v>34.11888750173132</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1069,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K7" t="n">
-        <v>9.977552361264268</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1175,22 +1177,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U8" t="n">
-        <v>24.87477961344436</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1218,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>24.5704967621155</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1330,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1379,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1461,16 +1463,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1543,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>39.58387696184059</v>
+        <v>19.93169026592149</v>
       </c>
       <c r="J13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1570,7 +1572,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1652,16 +1654,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>39.58387696184059</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="S14" t="n">
-        <v>24.87477961344436</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1683,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1698,16 +1700,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1780,16 +1782,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,13 +1809,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1856,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1941,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>44.13217237922859</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2081,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2123,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2135,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>116.0367764965385</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2175,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>43.48306295969267</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2205,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2220,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2315,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>241.0142888776591</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -2360,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2400,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2409,10 +2411,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>87.57350850354015</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -2442,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2463,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2479,64 +2481,64 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2597,22 +2599,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2621,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>51.12024601807692</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2646,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>135.1603019826155</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -2688,7 +2690,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2697,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2752,10 +2754,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
     </row>
     <row r="29">
@@ -2801,19 +2803,19 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>7.778646031951277</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -2849,10 +2851,10 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2880,19 +2882,19 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>103.5335228664165</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2931,7 +2933,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>158.5778536060452</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2962,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2992,13 +2994,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3026,73 +3028,73 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>36.43923176655766</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3190,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3263,73 +3265,73 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>220.2131257424249</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E35" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3354,7 +3356,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>84.56713651463426</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>151.6890773381162</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3512,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>241.0142888776591</v>
@@ -3524,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3560,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3582,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3591,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>103.7130553628818</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3600,10 +3602,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -3642,7 +3644,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>14.59515906968671</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3661,58 +3663,58 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.4659934602711</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3746,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>208.2792470398066</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3800,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3867,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>53.62461233665586</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>50.46697834767978</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,22 +4021,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>39.58387696184059</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4071,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>155.5825568932142</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4138,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4192,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>39.58387696184059</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L2" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M2" t="n">
-        <v>42.35474834916943</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N2" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R2" t="n">
-        <v>158.3355078473624</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S2" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T2" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U2" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V2" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W2" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X2" t="n">
-        <v>123.1178524655551</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="Y2" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F3" t="n">
-        <v>123.8719851183408</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="G3" t="n">
-        <v>83.88827101547153</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H3" t="n">
-        <v>43.90455691260225</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I3" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L3" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M3" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N3" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="O3" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H4" t="n">
-        <v>105.6285745504463</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="I4" t="n">
-        <v>65.64486044757699</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="J4" t="n">
-        <v>25.66114634470771</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C5" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D5" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E5" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F5" t="n">
-        <v>123.1178524655551</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G5" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M5" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N5" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O5" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S5" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T5" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U5" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V5" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W5" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X5" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y5" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F6" t="n">
-        <v>118.3517937444931</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="G6" t="n">
-        <v>78.36807964162378</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H6" t="n">
-        <v>38.38436553875449</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I6" t="n">
-        <v>3.920842809732961</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M6" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N6" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O6" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P6" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H7" t="n">
-        <v>93.21247408113457</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="I7" t="n">
-        <v>53.22875997826529</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="J7" t="n">
-        <v>13.245045875396</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L8" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M8" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N8" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O8" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R8" t="n">
-        <v>108.260178376266</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S8" t="n">
-        <v>68.2764642733967</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T8" t="n">
-        <v>28.29275017052741</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U8" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C9" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D9" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E9" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F9" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G9" t="n">
-        <v>3.166710156947247</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L9" t="n">
-        <v>42.35474834916943</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M9" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N9" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O9" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P9" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U9" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V9" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W9" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X9" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C10" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D10" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E10" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F10" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G10" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H10" t="n">
-        <v>105.6285745504463</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I10" t="n">
-        <v>65.64486044757699</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J10" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U10" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V10" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W10" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X10" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y10" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>118.3517937444931</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C11" t="n">
-        <v>118.3517937444931</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D11" t="n">
-        <v>118.3517937444931</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E11" t="n">
-        <v>118.3517937444931</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F11" t="n">
-        <v>83.13413836268582</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G11" t="n">
-        <v>43.15042425981653</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L11" t="n">
-        <v>42.35474834916943</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M11" t="n">
-        <v>42.35474834916943</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N11" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O11" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R11" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S11" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T11" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U11" t="n">
-        <v>118.3517937444931</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V11" t="n">
-        <v>118.3517937444931</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W11" t="n">
-        <v>118.3517937444931</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X11" t="n">
-        <v>118.3517937444931</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y11" t="n">
-        <v>118.3517937444931</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.920842809732961</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C12" t="n">
-        <v>3.920842809732961</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D12" t="n">
-        <v>3.920842809732961</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E12" t="n">
-        <v>3.920842809732961</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F12" t="n">
-        <v>3.920842809732961</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G12" t="n">
-        <v>3.920842809732961</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H12" t="n">
-        <v>3.920842809732961</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I12" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L12" t="n">
-        <v>42.35474834916943</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M12" t="n">
-        <v>42.35474834916943</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N12" t="n">
-        <v>79.95943146291799</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O12" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P12" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S12" t="n">
-        <v>78.36807964162378</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T12" t="n">
-        <v>38.38436553875449</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U12" t="n">
-        <v>3.920842809732961</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V12" t="n">
-        <v>3.920842809732961</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W12" t="n">
-        <v>3.920842809732961</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X12" t="n">
-        <v>3.920842809732961</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.920842809732961</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>130.4472581485427</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="C13" t="n">
-        <v>130.4472581485427</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="D13" t="n">
-        <v>130.4472581485427</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="E13" t="n">
-        <v>130.4472581485427</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="F13" t="n">
-        <v>130.4472581485427</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="G13" t="n">
-        <v>130.4472581485427</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="H13" t="n">
-        <v>105.6285745504463</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="I13" t="n">
-        <v>65.64486044757699</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J13" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q13" t="n">
-        <v>130.4472581485427</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R13" t="n">
-        <v>130.4472581485427</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="S13" t="n">
-        <v>130.4472581485427</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="T13" t="n">
-        <v>130.4472581485427</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="U13" t="n">
-        <v>130.4472581485427</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="V13" t="n">
-        <v>130.4472581485427</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="W13" t="n">
-        <v>130.4472581485427</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="X13" t="n">
-        <v>130.4472581485427</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.4472581485427</v>
+        <v>90.73598234693722</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L14" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M14" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N14" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O14" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.2438924791353</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R14" t="n">
-        <v>108.260178376266</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S14" t="n">
-        <v>83.13413836268582</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T14" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C15" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D15" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E15" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F15" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G15" t="n">
-        <v>3.166710156947247</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="H15" t="n">
-        <v>3.166710156947247</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I15" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L15" t="n">
-        <v>42.35474834916943</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M15" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N15" t="n">
-        <v>79.95943146291799</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>118.3517937444931</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T15" t="n">
-        <v>78.36807964162378</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U15" t="n">
-        <v>38.38436553875449</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V15" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W15" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X15" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H16" t="n">
-        <v>105.6285745504463</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>65.64486044757699</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q16" t="n">
-        <v>130.4472581485427</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R16" t="n">
-        <v>130.4472581485427</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.4472581485427</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.530573790338288</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C17" t="n">
-        <v>3.530573790338288</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D17" t="n">
-        <v>3.530573790338288</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E17" t="n">
-        <v>3.530573790338288</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F17" t="n">
-        <v>3.530573790338288</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G17" t="n">
-        <v>3.530573790338288</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H17" t="n">
-        <v>3.530573790338288</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>42.79483382228227</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>3.530573790338288</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.530573790338288</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>42.79483382228227</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>42.79483382228227</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>42.79483382228227</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>42.79483382228227</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>42.79483382228227</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>42.79483382228227</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>42.79483382228227</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>90.91227510121089</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>90.91227510121089</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>134.6031257566472</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O18" t="n">
-        <v>134.6031257566472</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>134.6031257566472</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>87.37278572049297</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>42.79483382228227</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>42.79483382228227</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>42.79483382228227</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>42.79483382228227</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X18" t="n">
-        <v>42.79483382228227</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y18" t="n">
-        <v>42.79483382228227</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W20" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20.03527576299844</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="C21" t="n">
-        <v>20.03527576299844</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="D21" t="n">
-        <v>20.03527576299844</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="E21" t="n">
-        <v>20.03527576299844</v>
+        <v>154.2571907237133</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>154.2571907237133</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>154.2571907237133</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5838,13 +5840,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5853,28 +5855,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V21" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W21" t="n">
-        <v>345.004439675971</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X21" t="n">
-        <v>345.004439675971</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y21" t="n">
-        <v>137.2441409110171</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="22">
@@ -5932,7 +5934,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
         <v>19.28114311021272</v>
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>467.067986854209</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C23" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D23" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E23" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F23" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G23" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
         <v>31.35113235729608</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>467.067986854209</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>347.7274039646085</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C24" t="n">
-        <v>347.7274039646085</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D24" t="n">
-        <v>198.7929943033573</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E24" t="n">
-        <v>198.7929943033573</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="F24" t="n">
-        <v>198.7929943033573</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="G24" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
         <v>110.334904905842</v>
@@ -6072,7 +6074,7 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
         <v>473.4149733950735</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>790.6398109613051</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V24" t="n">
-        <v>555.4877027295624</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W24" t="n">
-        <v>555.4877027295624</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X24" t="n">
-        <v>555.4877027295624</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y24" t="n">
-        <v>347.7274039646085</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="25">
@@ -6121,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
         <v>19.28114311021272</v>
@@ -6184,13 +6186,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>360.2295980564601</v>
+        <v>71.67188790247008</v>
       </c>
       <c r="C27" t="n">
-        <v>360.2295980564601</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>360.2295980564601</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>360.2295980564601</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>360.2295980564601</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6315,40 +6317,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>360.2295980564601</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V27" t="n">
-        <v>360.2295980564601</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W27" t="n">
-        <v>360.2295980564601</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X27" t="n">
-        <v>360.2295980564601</v>
+        <v>279.432186667424</v>
       </c>
       <c r="Y27" t="n">
-        <v>360.2295980564601</v>
+        <v>71.67188790247008</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>366.1018663125844</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U29" t="n">
-        <v>366.1018663125844</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W29" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X29" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>738.7078125165641</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>132.6502787026334</v>
+        <v>124.6145917896818</v>
       </c>
       <c r="C30" t="n">
-        <v>132.6502787026334</v>
+        <v>124.6145917896818</v>
       </c>
       <c r="D30" t="n">
-        <v>132.6502787026334</v>
+        <v>124.6145917896818</v>
       </c>
       <c r="E30" t="n">
-        <v>132.6502787026334</v>
+        <v>124.6145917896818</v>
       </c>
       <c r="F30" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6579,13 +6581,13 @@
         <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>340.5017789081662</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X30" t="n">
-        <v>132.6502787026334</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y30" t="n">
-        <v>132.6502787026334</v>
+        <v>292.8299288097498</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="G31" t="n">
         <v>19.28114311021272</v>
@@ -6640,31 +6642,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6753,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>343.4227147053767</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>168.9696854242497</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
         <v>20.03527576299844</v>
@@ -6780,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W33" t="n">
-        <v>927.2498506959315</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X33" t="n">
-        <v>719.3983504903987</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y33" t="n">
-        <v>511.6380517254448</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6838,13 +6840,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
         <v>829.5248650203655</v>
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>501.9060370580465</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C36" t="n">
-        <v>327.4530077769195</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D36" t="n">
-        <v>178.5185981156682</v>
+        <v>264.694080783236</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>105.4566257777805</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N36" t="n">
         <v>473.4149733950735</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>709.6663358230005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>709.6663358230005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>709.6663358230005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>709.6663358230005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>709.6663358230005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>709.6663358230005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y36" t="n">
-        <v>501.9060370580465</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="37">
@@ -7120,13 +7122,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
         <v>19.28114311021272</v>
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G38" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7208,10 +7210,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
         <v>720.6083788665362</v>
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>298.4948343740486</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C39" t="n">
-        <v>124.0418050929216</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D39" t="n">
-        <v>124.0418050929216</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E39" t="n">
-        <v>124.0418050929216</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7260,16 +7262,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N39" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V39" t="n">
-        <v>298.4948343740486</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W39" t="n">
-        <v>298.4948343740486</v>
+        <v>110.334904905842</v>
       </c>
       <c r="X39" t="n">
-        <v>298.4948343740486</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y39" t="n">
-        <v>298.4948343740486</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="40">
@@ -7306,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
         <v>829.5248650203655</v>
@@ -7360,22 +7362,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>229.3003572948082</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C41" t="n">
-        <v>229.3003572948082</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D41" t="n">
-        <v>229.3003572948082</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E41" t="n">
-        <v>229.3003572948082</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F41" t="n">
-        <v>229.3003572948082</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>229.3003572948082</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>229.3003572948082</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>121.932285387744</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>302.0081369724026</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>518.9837642353068</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>707.0089684063852</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>856.2039185490332</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>707.0094349923255</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>468.1548961435668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>468.1548961435668</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>342.3047184192</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>167.8516891380729</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.2748395346591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>144.2748395346591</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>378.3761730603275</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>612.4775065859958</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O42" t="n">
-        <v>693.8259377144041</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>876.4694153277549</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>772.4466292917531</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T42" t="n">
-        <v>772.4466292917531</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U42" t="n">
-        <v>772.4466292917531</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V42" t="n">
-        <v>772.4466292917531</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W42" t="n">
-        <v>718.2803542042219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X42" t="n">
-        <v>718.2803542042219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y42" t="n">
-        <v>510.520055439268</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>46.23140448453466</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>85.41944267675684</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>129.1102933321932</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.4495699670924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>153.4495699670924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4495699670924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.166710156947247</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C44" t="n">
-        <v>3.166710156947247</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D44" t="n">
-        <v>3.166710156947247</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>42.35474834916943</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>81.54278654139161</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>119.1474696551402</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>119.1474696551402</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>158.3355078473624</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>148.2438924791353</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>108.260178376266</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>108.260178376266</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>68.2764642733967</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U44" t="n">
-        <v>28.29275017052741</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V44" t="n">
-        <v>3.166710156947247</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W44" t="n">
-        <v>3.166710156947247</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X44" t="n">
-        <v>3.166710156947247</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y44" t="n">
-        <v>3.166710156947247</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>78.36807964162378</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>43.90455691260225</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>43.90455691260225</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>43.90455691260225</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>43.90455691260225</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>43.90455691260225</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>3.920842809732961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>3.920842809732961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>3.166710156947247</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>3.166710156947247</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N45" t="n">
-        <v>40.77139327069581</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>79.95943146291799</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>119.1474696551402</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>158.3355078473624</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>158.3355078473624</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>158.3355078473624</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>158.3355078473624</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V45" t="n">
-        <v>158.3355078473624</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W45" t="n">
-        <v>118.3517937444931</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X45" t="n">
-        <v>118.3517937444931</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y45" t="n">
-        <v>78.36807964162378</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>13.245045875396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>93.21247408113457</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.22875997826529</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7984,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>269.9301101891133</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N2" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>268.0827398194126</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>182.180121406285</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P3" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,13 +8218,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>268.3307616249986</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N5" t="n">
         <v>229.4130635965909</v>
@@ -8231,7 +8233,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8301,19 +8303,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>181.7179108838589</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>180.5807728421703</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P6" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,13 +8455,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>259.6737280068211</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N8" t="n">
         <v>229.4130635965909</v>
@@ -8468,7 +8470,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L9" t="n">
-        <v>178.1382567417148</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M9" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O9" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N11" t="n">
-        <v>267.3975919943167</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N12" t="n">
-        <v>169.3262404810591</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O12" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L14" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M14" t="n">
-        <v>268.3307616249986</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L15" t="n">
-        <v>178.1382567417148</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M15" t="n">
-        <v>180.1185623197441</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O15" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>175.4738844625619</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>182.3308283893217</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,10 +9403,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9486,16 +9488,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N21" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9720,10 +9722,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9963,16 +9965,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,7 +10676,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>231.1529892133073</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10908,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O39" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11069,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>419.3375122542458</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11139,19 +11141,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6000273822893</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>367.8077055436044</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O42" t="n">
-        <v>224.7663768973821</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>259.6737280068211</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>275.3502919318278</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>268.3307616249986</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>269.6820883835273</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,22 +11381,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N45" t="n">
-        <v>169.3262404810591</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>182.180121406285</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>173.5582843761708</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22556,10 +22558,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22589,13 +22591,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>180.1391513691656</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22604,16 +22606,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>334.8656218504798</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>346.654061694213</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="3">
@@ -22635,16 +22637,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>110.9503248916526</v>
+        <v>106.9441862880172</v>
       </c>
       <c r="G3" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H3" t="n">
-        <v>72.65156727465587</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I3" t="n">
-        <v>49.81275588957449</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22720,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>134.9352350102176</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I4" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J4" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>21.47904137820059</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22793,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>372.0105669137222</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22829,16 +22831,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>212.474035476212</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22872,16 +22874,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>105.4853354315433</v>
+        <v>106.9441862880172</v>
       </c>
       <c r="G6" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H6" t="n">
-        <v>72.65156727465587</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I6" t="n">
-        <v>55.27774534968376</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22957,16 +22959,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>122.643295545599</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I7" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J7" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K7" t="n">
-        <v>12.29193946461858</v>
+        <v>21.47904137820059</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23063,22 +23065,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>169.4361926244048</v>
+        <v>170.1484521546208</v>
       </c>
       <c r="T8" t="n">
-        <v>183.5119726022908</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U8" t="n">
-        <v>226.4708732943921</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23106,16 +23108,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>73.36382680487192</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23145,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>191.0759032529857</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23194,13 +23196,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>137.6566757453241</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I10" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J10" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,7 +23220,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -23267,13 +23269,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>372.0105669137222</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>299.8909251539266</v>
+        <v>300.6031846841426</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23303,16 +23305,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U11" t="n">
-        <v>211.7617759459959</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,16 +23351,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>50.52501541979053</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>60.57395719080255</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S12" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>191.8224945792435</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23431,13 +23433,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>137.6566757453241</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>115.8665979654177</v>
+        <v>135.5187846613368</v>
       </c>
       <c r="J13" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23540,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>110.2852409793091</v>
+        <v>120.9881997240699</v>
       </c>
       <c r="S14" t="n">
-        <v>184.145289972801</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T14" t="n">
-        <v>183.5119726022908</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U14" t="n">
-        <v>211.7617759459959</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23571,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>122.4010112706387</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23586,16 +23588,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>99.21849105784395</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>197.9351083214361</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23668,16 +23670,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>137.6566757453241</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>181.8154159451679</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23744,16 +23746,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>184.4282419190523</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,25 +23779,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>288.8806410385104</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23829,7 +23831,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>51.27160674604839</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>127.5509987246092</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>156.032556315593</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23902,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.2005289107765</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H19" t="n">
         <v>162.2271725074396</v>
@@ -23935,13 +23937,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>183.8134170490529</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23969,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24023,19 +24025,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>50.49640715332887</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24054,7 +24056,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24063,10 +24065,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>68.75238127680379</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24108,7 +24110,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24172,10 +24174,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>164.936795482178</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24224,7 +24226,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>20.13049249612121</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24266,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24288,7 +24290,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24297,10 +24299,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>49.77000865967048</v>
+        <v>102.3410493332382</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24330,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24351,7 +24353,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24367,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24485,22 +24487,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24509,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24522,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>121.5882529702388</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24534,13 +24536,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>2.183215180595113</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24576,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24585,10 +24587,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24640,10 +24642,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24658,7 +24660,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>174.2811697535276</v>
       </c>
     </row>
     <row r="29">
@@ -24689,19 +24691,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>399.0973997097602</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,13 +24724,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24737,10 +24739,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24768,19 +24770,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>41.5356895269674</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24819,7 +24821,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>93.11712955487437</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24850,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.9909793584588</v>
+        <v>120.9660550247851</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24880,13 +24882,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24914,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24962,16 +24964,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24980,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>215.2557513943619</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25078,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25151,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>162.5207159210556</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25205,19 +25207,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25242,7 +25244,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>60.50207587874962</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -25254,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>19.99409376572166</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25360,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25369,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25400,7 +25402,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>206.5399494528818</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>174.288448637476</v>
@@ -25412,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25448,13 +25450,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25470,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25479,7 +25481,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>41.35615703050212</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25488,10 +25490,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25518,7 +25520,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25530,7 +25532,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>237.0998240912329</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25549,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25600,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>146.2678482032095</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25634,19 +25636,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>2.19664253059932</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25688,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>112.774975257142</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>133.265107218198</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25755,25 +25757,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>198.0703708242638</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>304.2160632730032</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,22 +25909,22 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>110.2852409793091</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>302.8774788566905</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25944,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>138.5896114865844</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25959,13 +25961,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -25998,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>70.3588251877606</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>212.111106199079</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26026,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>109.0315960563718</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>158.0134269971945</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26080,10 +26082,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>212.5537663619874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>246.9391213747504</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355268.3982687963</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355268.3982687964</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355268.3982687963</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355268.3982687963</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355268.3982687963</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358659.0160535968</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495251.8800453863</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355268.3982687963</v>
+        <v>498482.0175939974</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59211.39971146598</v>
+        <v>59776.50267559938</v>
       </c>
       <c r="C2" t="n">
-        <v>59211.39971146599</v>
+        <v>59776.50267559939</v>
       </c>
       <c r="D2" t="n">
-        <v>59211.39971146603</v>
+        <v>59776.50267559939</v>
       </c>
       <c r="E2" t="n">
-        <v>59211.39971146602</v>
+        <v>59776.5026755994</v>
       </c>
       <c r="F2" t="n">
-        <v>59211.39971146601</v>
+        <v>59776.50267559938</v>
       </c>
       <c r="G2" t="n">
-        <v>59776.50267559938</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="H2" t="n">
         <v>83080.33626566621</v>
       </c>
       <c r="I2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="J2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="K2" t="n">
+        <v>83080.33626566619</v>
+      </c>
+      <c r="L2" t="n">
+        <v>83080.33626566615</v>
+      </c>
+      <c r="M2" t="n">
         <v>83080.33626566618</v>
       </c>
-      <c r="L2" t="n">
-        <v>83080.33626566619</v>
-      </c>
-      <c r="M2" t="n">
-        <v>83080.33626566621</v>
-      </c>
       <c r="N2" t="n">
-        <v>83080.33626566622</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="O2" t="n">
-        <v>82541.98000756433</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="P2" t="n">
-        <v>59211.39971146602</v>
+        <v>83080.33626566618</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.41106180436363</v>
+        <v>36.87052286425572</v>
       </c>
       <c r="C4" t="n">
-        <v>33.41106180436364</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="D4" t="n">
-        <v>33.41106180436364</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="E4" t="n">
-        <v>33.41106180436364</v>
+        <v>36.87052286425572</v>
       </c>
       <c r="F4" t="n">
-        <v>33.41106180436363</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="G4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
         <v>179.5324977039669</v>
       </c>
       <c r="I4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
         <v>179.5324977039669</v>
@@ -26454,10 +26456,10 @@
         <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>176.2367752791008</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>33.41106180436364</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9878.221331298795</v>
+        <v>8639.0900678338</v>
       </c>
       <c r="C6" t="n">
-        <v>23143.68893038172</v>
+        <v>23428.79607207803</v>
       </c>
       <c r="D6" t="n">
-        <v>23143.68893038176</v>
+        <v>23428.79607207803</v>
       </c>
       <c r="E6" t="n">
-        <v>56771.28893038174</v>
+        <v>57056.39607207804</v>
       </c>
       <c r="F6" t="n">
-        <v>56771.28893038174</v>
+        <v>57056.39607207802</v>
       </c>
       <c r="G6" t="n">
-        <v>55809.77652260324</v>
+        <v>14284.70010372825</v>
       </c>
       <c r="H6" t="n">
-        <v>15126.56803387554</v>
+        <v>68247.13500420057</v>
       </c>
       <c r="I6" t="n">
-        <v>68247.13500420057</v>
+        <v>68247.13500420054</v>
       </c>
       <c r="J6" t="n">
-        <v>57890.25110039672</v>
+        <v>56700.21689420965</v>
       </c>
       <c r="K6" t="n">
+        <v>68247.13500420055</v>
+      </c>
+      <c r="L6" t="n">
+        <v>68247.13500420051</v>
+      </c>
+      <c r="M6" t="n">
         <v>68247.13500420054</v>
       </c>
-      <c r="L6" t="n">
-        <v>68247.13500420055</v>
-      </c>
-      <c r="M6" t="n">
-        <v>68247.13500420057</v>
-      </c>
       <c r="N6" t="n">
-        <v>68247.13500420058</v>
+        <v>68247.13500420054</v>
       </c>
       <c r="O6" t="n">
-        <v>67988.61082990075</v>
+        <v>20867.25678673675</v>
       </c>
       <c r="P6" t="n">
-        <v>56771.28893038175</v>
+        <v>68247.13500420054</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34702,19 +34704,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="P3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,13 +34938,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,7 +34953,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35021,19 +35023,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,13 +35175,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35188,7 +35190,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M9" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N11" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N12" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M14" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L15" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M15" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P17" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>44.13217237922859</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>42.34905430330016</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,16 +36208,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36440,10 +36442,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36683,16 +36685,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36844,7 +36846,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O29" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P29" t="n">
         <v>90.5657124162131</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>169.9067907798017</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37315,7 +37317,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37394,7 +37396,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>99.81127712997396</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37549,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37628,19 +37630,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>55.51629994036219</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,10 +37788,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N41" t="n">
-        <v>189.9244486576549</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37859,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>236.4659934602711</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O42" t="n">
-        <v>82.17013245293764</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>39.58387696184059</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>39.58387696184059</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>37.98452839772582</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>39.58387696184059</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N45" t="n">
-        <v>37.98452839772582</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>39.58387696184059</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_0_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373609.6494672063</v>
+        <v>268277.9841761547</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782367</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.609564</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5116643.000488906</v>
+        <v>5764008.847562066</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>44.13217237922859</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>28.88091821707974</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>44.13217237922859</v>
+        <v>88.19812805758562</v>
       </c>
       <c r="H3" t="n">
-        <v>44.13217237922859</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>44.13217237922859</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -940,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>44.13217237922859</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>44.13217237922859</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
     </row>
     <row r="6">
@@ -977,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>38.12502610536668</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>44.13217237922859</v>
+        <v>5.782984192301438</v>
       </c>
       <c r="H6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1071,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1177,22 +1177,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>44.13217237922859</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>44.13217237922859</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="V8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1220,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>44.13217237922859</v>
+        <v>34.60849753988755</v>
       </c>
       <c r="G9" t="n">
-        <v>44.13217237922859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1414,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>44.13217237922859</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>44.13217237922859</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>111.7765806969846</v>
       </c>
       <c r="G12" t="n">
-        <v>44.13217237922859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>44.13217237922859</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1508,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>19.93169026592149</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>28.88091821707974</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1697,16 +1697,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>29.9265212561017</v>
       </c>
       <c r="G15" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1806,16 +1806,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -1985,10 +1985,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>3.833957768458675</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2125,28 +2125,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>241.0142888776591</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>43.48306295969267</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2210,25 +2210,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2320,16 +2320,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="24">
@@ -2411,13 +2411,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>35.00246782997241</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -2447,22 +2447,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="F26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>241.0142888776591</v>
@@ -2602,16 +2602,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>52.42556848774752</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>51.12024601807692</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>63.14223173826446</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2754,10 +2754,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2803,61 +2803,61 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>7.778646031951277</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I29" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2882,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>103.5335228664165</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2994,10 +2994,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3073,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>21.18375537072436</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -3170,13 +3170,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>3.833957768458675</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="34">
@@ -3192,52 +3192,52 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,19 +3277,19 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>190.3453970742848</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>84.56713651463426</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3398,22 +3398,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>33.19332575419081</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,22 +3511,22 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>112.9995969463466</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3602,10 +3602,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3632,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>56.91690033700343</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>14.59515906968671</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,64 +3739,64 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>72.47049842454874</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S41" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3827,22 +3827,22 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>144.6963243757077</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,31 +3976,31 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
       <c r="D44" t="n">
-        <v>50.46697834767978</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>155.5825568932142</v>
+        <v>144.0144014258553</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4121,7 +4121,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>121.8591222504766</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>92.68647758675968</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>92.68647758675968</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>92.68647758675968</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V2" t="n">
-        <v>48.10852568854899</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W2" t="n">
-        <v>48.10852568854899</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X2" t="n">
-        <v>48.10852568854899</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.5286895169144</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="C3" t="n">
-        <v>176.5286895169144</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="D3" t="n">
-        <v>176.5286895169144</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="E3" t="n">
-        <v>176.5286895169144</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="F3" t="n">
-        <v>138.0185621377561</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="G3" t="n">
-        <v>93.44061023954541</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H3" t="n">
-        <v>48.8626583413347</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I3" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>47.22142444577459</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M3" t="n">
-        <v>47.22142444577459</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N3" t="n">
-        <v>47.22142444577459</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>89.14698820604177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U3" t="n">
-        <v>176.5286895169144</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V3" t="n">
-        <v>176.5286895169144</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W3" t="n">
-        <v>176.5286895169144</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="X3" t="n">
-        <v>176.5286895169144</v>
+        <v>312.0389260854624</v>
       </c>
       <c r="Y3" t="n">
-        <v>176.5286895169144</v>
+        <v>312.0389260854624</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>131.9507376187037</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>87.37278572049297</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>42.79483382228227</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>3.530573790338288</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>3.530573790338288</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>3.530573790338288</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>3.530573790338288</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>176.5286895169144</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="C6" t="n">
-        <v>176.5286895169144</v>
+        <v>480.5830965768621</v>
       </c>
       <c r="D6" t="n">
-        <v>176.5286895169144</v>
+        <v>331.6486869156108</v>
       </c>
       <c r="E6" t="n">
-        <v>176.5286895169144</v>
+        <v>172.4112319101553</v>
       </c>
       <c r="F6" t="n">
-        <v>138.0185621377561</v>
+        <v>25.87667393704029</v>
       </c>
       <c r="G6" t="n">
-        <v>93.44061023954541</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>48.8626583413347</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>3.530573790338288</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>45.45613755060546</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>45.45613755060546</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>89.14698820604177</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>176.5286895169144</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y6" t="n">
-        <v>176.5286895169144</v>
+        <v>655.0361258579891</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>93.48491238239833</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>48.90696048418764</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>45.45613755060546</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>137.2644294849704</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>92.68647758675968</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U8" t="n">
-        <v>48.10852568854899</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V8" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176.5286895169144</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="C9" t="n">
-        <v>176.5286895169144</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="D9" t="n">
-        <v>176.5286895169144</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="E9" t="n">
-        <v>131.9507376187037</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="F9" t="n">
-        <v>87.37278572049297</v>
+        <v>248.3115976704407</v>
       </c>
       <c r="G9" t="n">
-        <v>42.79483382228227</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>90.91227510121089</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>90.91227510121089</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>132.8378388614781</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>176.5286895169144</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>176.5286895169144</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V9" t="n">
-        <v>176.5286895169144</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W9" t="n">
-        <v>176.5286895169144</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X9" t="n">
-        <v>176.5286895169144</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="Y9" t="n">
-        <v>176.5286895169144</v>
+        <v>283.2696759935595</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.79483382228227</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>42.79483382228227</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>42.79483382228227</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>42.79483382228227</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>42.79483382228227</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>131.9507376187037</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>131.9507376187037</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>87.37278572049297</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U11" t="n">
-        <v>42.79483382228227</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V11" t="n">
-        <v>42.79483382228227</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W11" t="n">
-        <v>42.79483382228227</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X11" t="n">
-        <v>42.79483382228227</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y11" t="n">
-        <v>42.79483382228227</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>131.9507376187037</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C12" t="n">
-        <v>131.9507376187037</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D12" t="n">
-        <v>131.9507376187037</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="E12" t="n">
-        <v>131.9507376187037</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="F12" t="n">
-        <v>131.9507376187037</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G12" t="n">
-        <v>87.37278572049297</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H12" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>90.91227510121089</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>134.6031257566472</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>176.5286895169144</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V12" t="n">
-        <v>131.9507376187037</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W12" t="n">
-        <v>131.9507376187037</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X12" t="n">
-        <v>131.9507376187037</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y12" t="n">
-        <v>131.9507376187037</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90.73598234693722</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>90.73598234693722</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>90.73598234693722</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>90.73598234693722</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>90.73598234693722</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>90.73598234693722</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>90.73598234693722</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>90.73598234693722</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>90.73598234693722</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>90.73598234693722</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>90.73598234693722</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.73598234693722</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>137.2644294849704</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>92.68647758675968</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T14" t="n">
-        <v>48.10852568854899</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U14" t="n">
-        <v>3.530573790338288</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V14" t="n">
-        <v>3.530573790338288</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W14" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X14" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>131.9507376187037</v>
+        <v>224.7171143937231</v>
       </c>
       <c r="C15" t="n">
-        <v>131.9507376187037</v>
+        <v>50.26408511259612</v>
       </c>
       <c r="D15" t="n">
-        <v>131.9507376187037</v>
+        <v>50.26408511259612</v>
       </c>
       <c r="E15" t="n">
-        <v>131.9507376187037</v>
+        <v>50.26408511259612</v>
       </c>
       <c r="F15" t="n">
-        <v>131.9507376187037</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>93.44061023954541</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>48.8626583413347</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>89.14698820604177</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>132.8378388614781</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>176.5286895169144</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>176.5286895169144</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U15" t="n">
-        <v>176.5286895169144</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V15" t="n">
-        <v>176.5286895169144</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W15" t="n">
-        <v>176.5286895169144</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="X15" t="n">
-        <v>176.5286895169144</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="Y15" t="n">
-        <v>176.5286895169144</v>
+        <v>224.7171143937231</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X17" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y17" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5603,43 +5603,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5703,7 +5703,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>313.4946457291688</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>313.4946457291688</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>313.4946457291688</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>154.2571907237133</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>154.2571907237133</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>154.2571907237133</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
         <v>20.03527576299844</v>
@@ -5837,7 +5837,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M21" t="n">
         <v>304.2053859195205</v>
@@ -5858,25 +5858,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T21" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U21" t="n">
-        <v>689.4702815141908</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V21" t="n">
-        <v>689.4702815141908</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W21" t="n">
-        <v>689.4702815141908</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X21" t="n">
-        <v>689.4702815141908</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y21" t="n">
-        <v>481.7099827492369</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="22">
@@ -5937,13 +5937,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y23" t="n">
-        <v>477.1596022224361</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
         <v>20.03527576299844</v>
@@ -6071,22 +6071,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>712.019119383956</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6095,25 +6095,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>259.0600686093459</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V24" t="n">
-        <v>259.0600686093459</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W24" t="n">
-        <v>259.0600686093459</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X24" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y24" t="n">
-        <v>259.0600686093459</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6171,19 +6171,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
         <v>262.7299197543128</v>
@@ -6250,28 +6250,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="27">
@@ -6281,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>71.67188790247008</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
         <v>20.03527576299844</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>487.2836868729568</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V27" t="n">
-        <v>487.2836868729568</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W27" t="n">
-        <v>487.2836868729568</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X27" t="n">
-        <v>279.432186667424</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y27" t="n">
-        <v>71.67188790247008</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6402,31 +6402,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
         <v>19.28114311021272</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>738.7078125165641</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>738.7078125165641</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>738.7078125165641</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>738.7078125165641</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T29" t="n">
-        <v>738.7078125165641</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U29" t="n">
-        <v>738.7078125165641</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V29" t="n">
-        <v>738.7078125165641</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W29" t="n">
-        <v>738.7078125165641</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="X29" t="n">
-        <v>738.7078125165641</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>738.7078125165641</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>124.6145917896818</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>124.6145917896818</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>124.6145917896818</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>124.6145917896818</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
         <v>20.03527576299844</v>
@@ -6545,10 +6545,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M30" t="n">
         <v>234.810827406191</v>
@@ -6581,13 +6581,13 @@
         <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>500.6814290152826</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>292.8299288097498</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y30" t="n">
-        <v>292.8299288097498</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
         <v>19.28114311021272</v>
@@ -6642,31 +6642,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>942.6594228129348</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>731.528039392485</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T32" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U32" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V32" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W32" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X32" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6788,13 +6788,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>23.90796037760316</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>20.03527576299844</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6967,22 +6967,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>728.6161971483371</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>485.167420504237</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>485.167420504237</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X35" t="n">
-        <v>241.7186438601369</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.7186438601369</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>588.0815197256143</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C36" t="n">
-        <v>413.6284904444873</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D36" t="n">
-        <v>264.694080783236</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E36" t="n">
-        <v>105.4566257777805</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7028,7 +7028,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7046,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>930.5285436377162</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>702.3049253741053</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>467.1528171423627</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y36" t="n">
-        <v>756.2968567456824</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="37">
@@ -7122,16 +7122,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="T39" t="n">
-        <v>588.4532163200711</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="U39" t="n">
-        <v>360.2295980564601</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V39" t="n">
-        <v>125.0774898247174</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W39" t="n">
-        <v>110.334904905842</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X39" t="n">
-        <v>110.334904905842</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y39" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>749.627473042513</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C41" t="n">
-        <v>749.627473042513</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D41" t="n">
-        <v>749.627473042513</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E41" t="n">
-        <v>506.1786963984129</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y41" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.28114311021272</v>
+        <v>655.1273272985679</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>655.1273272985679</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>655.1273272985679</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>928.2922408909005</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>726.1056462496665</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>497.8820279860555</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V42" t="n">
-        <v>262.7299197543128</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W42" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X42" t="n">
-        <v>19.28114311021272</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y42" t="n">
-        <v>19.28114311021272</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="43">
@@ -7593,19 +7593,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>325.7766548071333</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C44" t="n">
-        <v>325.7766548071333</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W44" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X44" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y44" t="n">
-        <v>569.2254314512334</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U45" t="n">
-        <v>705.7335281915883</v>
+        <v>645.1707186119563</v>
       </c>
       <c r="V45" t="n">
-        <v>470.5814199598456</v>
+        <v>410.0186103802135</v>
       </c>
       <c r="W45" t="n">
-        <v>227.1326433157456</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="X45" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
     </row>
     <row r="46">
@@ -7836,13 +7836,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>184.9452987477446</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>186.728416823673</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P6" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>262.4389053482807</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>173.6907663866335</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>173.6907663866335</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,19 +9008,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>180.9034340831744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9251,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N18" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9485,10 +9485,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M21" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10193,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M30" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10436,16 +10436,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O33" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10676,10 +10676,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,16 +11150,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>330.3082731757331</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22594,10 +22594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>105.7369455619211</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.1391513691656</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22606,7 +22606,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>283.6200860909063</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>342.105766276825</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22637,19 +22637,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>106.9441862880172</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>93.21134478398204</v>
+        <v>49.14538910562501</v>
       </c>
       <c r="H3" t="n">
-        <v>68.10327185726787</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45.26446047218649</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,7 +22676,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22685,10 +22685,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22722,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>21.47904137820059</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,7 +22792,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>105.7369455619211</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8878972070167</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>212.474035476212</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>301.8181508768923</v>
       </c>
     </row>
     <row r="6">
@@ -22865,25 +22865,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>106.9441862880172</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>93.21134478398204</v>
+        <v>131.5605329709092</v>
       </c>
       <c r="H6" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22928,7 +22928,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22959,16 +22959,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>21.47904137820059</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22995,7 +22995,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23029,7 +23029,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -23065,22 +23065,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>170.1484521546208</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>178.9636771849028</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>207.2134805286079</v>
+        <v>31.13252716541155</v>
       </c>
       <c r="V8" t="n">
-        <v>283.6200860909063</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23108,19 +23108,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>100.9370400141553</v>
+        <v>110.4607148534963</v>
       </c>
       <c r="G9" t="n">
-        <v>93.21134478398204</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>73.36382680487192</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23153,16 +23153,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23196,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23272,10 +23272,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>300.6031846841426</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>105.7369455619211</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>178.9636771849028</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U11" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23348,16 +23348,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>33.29263169639931</v>
       </c>
       <c r="G12" t="n">
-        <v>93.21134478398204</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>68.10327185726787</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>50.52501541979053</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23396,10 +23396,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>135.5187846613368</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,10 +23457,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23472,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23512,7 +23512,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>120.9881997240699</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>275.3266899823874</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23573,10 +23573,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>122.4010112706387</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23585,16 +23585,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>115.1426911372822</v>
       </c>
       <c r="G15" t="n">
-        <v>99.21849105784395</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23642,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G16" t="n">
         <v>167.9909793584588</v>
@@ -23694,16 +23694,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
         <v>227.9455894282815</v>
@@ -23740,22 +23740,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>184.4282419190523</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23785,7 +23785,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>70.35882518776062</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23873,10 +23873,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.8610253924609</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23943,10 +23943,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23992,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,28 +24013,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>168.5437904531102</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>145.2236497783945</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24056,7 +24056,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24065,10 +24065,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>68.75238127680379</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24177,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24186,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24208,16 +24208,16 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>164.936795482178</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24229,7 +24229,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24271,10 +24271,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="24">
@@ -24299,13 +24299,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>102.3410493332382</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24335,22 +24335,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24451,10 +24451,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>161.7172443298368</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>174.288448637476</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>170.6702810763838</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24524,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>121.5882529702388</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>142.630753465213</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24642,10 +24642,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24663,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>174.2811697535276</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24691,19 +24691,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>399.0973997097602</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24727,25 +24727,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>307.3148329761767</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>137.4807660112426</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -24770,7 +24770,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>41.5356895269674</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24821,7 +24821,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>120.9660550247851</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
         <v>162.2271725074396</v>
@@ -24882,10 +24882,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24931,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>312.9645104224461</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24961,10 +24961,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>128.6853625704253</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25058,13 +25058,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>247.8610253924609</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="34">
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25125,7 +25125,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>162.5207159210556</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25165,19 +25165,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>216.5306486674267</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>60.50207587874962</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25286,22 +25286,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>166.9714029406308</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25362,7 +25362,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
         <v>227.9455894282815</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,22 +25399,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>302.3031405687884</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25438,10 +25438,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25490,10 +25490,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25520,25 +25520,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>114.7662707668344</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>237.0998240912329</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25602,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>140.9160811946027</v>
+        <v>309.459871647713</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25715,22 +25715,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>12.94875607969328</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
-        <v>304.2160632730032</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25882,13 +25882,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25927,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25955,7 +25955,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,16 +25991,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>70.3588251877606</v>
+        <v>81.92698065511954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26076,7 +26076,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>498482.0175939974</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59776.50267559938</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="C2" t="n">
-        <v>59776.50267559939</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="D2" t="n">
-        <v>59776.50267559939</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="E2" t="n">
-        <v>59776.5026755994</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="F2" t="n">
-        <v>59776.50267559938</v>
+        <v>83080.33626566615</v>
       </c>
       <c r="G2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="H2" t="n">
         <v>83080.33626566621</v>
       </c>
       <c r="I2" t="n">
+        <v>83080.33626566621</v>
+      </c>
+      <c r="J2" t="n">
+        <v>83080.33626566621</v>
+      </c>
+      <c r="K2" t="n">
         <v>83080.33626566618</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>83080.33626566618</v>
       </c>
-      <c r="K2" t="n">
-        <v>83080.33626566619</v>
-      </c>
-      <c r="L2" t="n">
-        <v>83080.33626566615</v>
-      </c>
       <c r="M2" t="n">
-        <v>83080.33626566618</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="N2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="O2" t="n">
-        <v>83080.33626566618</v>
+        <v>83080.33626566615</v>
       </c>
       <c r="P2" t="n">
         <v>83080.33626566618</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.87052286425572</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="C4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>36.87052286425572</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="G4" t="n">
         <v>179.5324977039669</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8639.0900678338</v>
+        <v>-58367.90714738765</v>
       </c>
       <c r="C6" t="n">
-        <v>23428.79607207803</v>
+        <v>22401.5243841601</v>
       </c>
       <c r="D6" t="n">
-        <v>23428.79607207803</v>
+        <v>22401.52438416007</v>
       </c>
       <c r="E6" t="n">
-        <v>57056.39607207804</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="F6" t="n">
-        <v>57056.39607207802</v>
+        <v>56029.12438416004</v>
       </c>
       <c r="G6" t="n">
-        <v>14284.70010372825</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="H6" t="n">
-        <v>68247.13500420057</v>
+        <v>56029.1243841601</v>
       </c>
       <c r="I6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.1243841601</v>
       </c>
       <c r="J6" t="n">
-        <v>56700.21689420965</v>
+        <v>-7030.818214946124</v>
       </c>
       <c r="K6" t="n">
-        <v>68247.13500420055</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="L6" t="n">
-        <v>68247.13500420051</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="M6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.1243841601</v>
       </c>
       <c r="N6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="O6" t="n">
-        <v>20867.25678673675</v>
+        <v>56029.12438416004</v>
       </c>
       <c r="P6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.12438416007</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>42.34905430330018</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>42.34905430330019</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>44.13217237922859</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P6" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>42.34905430330018</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>42.34905430330019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>42.34905430330016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>42.34905430330019</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>42.34905430330018</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35971,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>113.3808631277495</v>
+      </c>
+      <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N18" t="n">
-        <v>99.8112771299739</v>
-      </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36205,10 +36205,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M21" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M30" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -37156,16 +37156,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N33" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37396,10 +37396,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="O36" t="n">
         <v>226.4350751681936</v>
-      </c>
-      <c r="O36" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,13 +37788,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
@@ -37870,16 +37870,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
